--- a/data/trans_dic/P57GLOBAL_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P57GLOBAL_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,14%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,62%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,4%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,61%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,98%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>60,16; 78,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>65,81; 81,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>62,62; 79,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>51,96; 72,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>68,84; 83,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>72,33; 88,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>70,24; 86,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>52,67; 68,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>67,77; 79,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>71,28; 82,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>69,7; 81,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>55,43; 68,1</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,62%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,57%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>74,71; 82,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>58,43; 66,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>77,66; 84,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>55,1; 64,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>74,04; 80,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>66,74; 74,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>82,98; 88,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>59,82; 66,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>75,46; 80,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>63,96; 69,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>81,54; 85,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>58,46; 64,35</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,66%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>67,29; 73,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>65,84; 71,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>78,8; 83,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>52,01; 67,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>71,26; 76,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>71,77; 77,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>84,33; 88,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>65,69; 71,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>69,89; 74,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>69,76; 73,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>82,25; 85,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>60,44; 68,43</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,15%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,04%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,87%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>60,76; 68,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>62,48; 69,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>83,62; 88,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>62,65; 71,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>64,31; 70,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>66,5; 73,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>83,07; 88,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>60,73; 68,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>63,49; 68,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>65,63; 70,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>84,35; 87,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>62,78; 68,34</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,65%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,78%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,2%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,2%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,72%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>66,89; 72,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>71,55; 77,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>77,94; 83,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>60,21; 66,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>67,67; 73,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>79,13; 84,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>79,72; 84,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>58,17; 64,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>68,2; 72,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>76,46; 79,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>79,56; 83,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>60,67; 65,05</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,76%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,05%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>68,69; 71,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>67,23; 70,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,47; 83,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>60,32; 65,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>70,83; 73,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>73,9; 76,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>83,39; 85,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>63,12; 66,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>70,27; 72,46</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>71,04; 73,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>82,36; 84,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>62,1; 65,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57GLOBAL_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>70,43%</t>
+          <t>77,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>74,33%</t>
+          <t>64,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>71,6%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>63,02%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>76,88%</t>
+          <t>77,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>80,45%</t>
+          <t>72,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>79,74%</t>
+          <t>84,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>62,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>73,62%</t>
+          <t>77,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>77,4%</t>
+          <t>68,36%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>75,61%</t>
+          <t>82,25%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>61,98%</t>
+          <t>60,54%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60,16; 78,73</t>
+          <t>73,93; 80,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>65,81; 81,3</t>
+          <t>60,7; 68,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,62; 79,56</t>
+          <t>76,26; 82,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,96; 72,89</t>
+          <t>53,88; 62,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>68,84; 83,13</t>
+          <t>73,92; 80,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>72,33; 88,31</t>
+          <t>68,34; 75,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,24; 86,01</t>
+          <t>82,12; 87,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,67; 68,12</t>
+          <t>59,16; 65,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,77; 79,77</t>
+          <t>74,81; 79,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71,28; 82,46</t>
+          <t>65,92; 70,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>69,7; 81,2</t>
+          <t>80,06; 84,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,43; 68,1</t>
+          <t>57,6; 63,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62,62%</t>
+          <t>68,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>81,25%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,52%</t>
+          <t>51,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>77,43%</t>
+          <t>73,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>70,64%</t>
+          <t>74,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>85,98%</t>
+          <t>86,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>67,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>77,96%</t>
+          <t>72,07%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66,62%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>61,57%</t>
+          <t>58,7%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,71; 82,01</t>
+          <t>67,29; 73,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>58,43; 66,6</t>
+          <t>65,84; 71,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,66; 84,59</t>
+          <t>78,8; 83,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,1; 64,06</t>
+          <t>25,71; 65,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>74,04; 80,79</t>
+          <t>71,26; 76,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,74; 74,22</t>
+          <t>71,77; 77,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,98; 88,7</t>
+          <t>84,33; 88,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>59,82; 66,8</t>
+          <t>64,87; 70,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>75,46; 80,36</t>
+          <t>69,89; 74,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,96; 69,36</t>
+          <t>69,76; 73,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>81,54; 85,84</t>
+          <t>82,25; 85,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>58,46; 64,35</t>
+          <t>39,93; 67,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>64,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68,74%</t>
+          <t>66,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>86,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>62,61%</t>
+          <t>66,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>73,96%</t>
+          <t>67,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>74,74%</t>
+          <t>70,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>86,46%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>68,67%</t>
+          <t>62,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>72,07%</t>
+          <t>66,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>71,76%</t>
+          <t>68,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>86,04%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>65,66%</t>
+          <t>64,38%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,29; 73,22</t>
+          <t>60,76; 68,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,84; 71,88</t>
+          <t>62,48; 69,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,8; 83,86</t>
+          <t>83,62; 88,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,01; 67,27</t>
+          <t>62,08; 70,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>71,26; 76,65</t>
+          <t>64,31; 70,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,77; 77,65</t>
+          <t>66,5; 73,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>84,33; 88,33</t>
+          <t>83,07; 88,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,69; 71,12</t>
+          <t>51,41; 66,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69,89; 74,11</t>
+          <t>63,49; 68,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69,76; 73,79</t>
+          <t>65,63; 70,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>82,25; 85,67</t>
+          <t>84,35; 87,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>60,44; 68,43</t>
+          <t>59,12; 67,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>69,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66,12%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,19%</t>
+          <t>80,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>66,93%</t>
+          <t>61,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>67,55%</t>
+          <t>70,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,07%</t>
+          <t>81,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>85,89%</t>
+          <t>82,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>57,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>66,15%</t>
+          <t>70,2%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>68,13%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>86,04%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>65,87%</t>
+          <t>59,73%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,76; 68,62</t>
+          <t>66,89; 72,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,48; 69,55</t>
+          <t>71,55; 77,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,62; 88,55</t>
+          <t>77,94; 83,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>62,65; 71,0</t>
+          <t>58,19; 65,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,31; 70,95</t>
+          <t>67,67; 73,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,5; 73,56</t>
+          <t>79,13; 84,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,07; 88,21</t>
+          <t>79,72; 84,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>60,73; 68,23</t>
+          <t>43,5; 62,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,49; 68,79</t>
+          <t>68,2; 72,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>65,63; 70,67</t>
+          <t>76,46; 79,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>84,35; 87,87</t>
+          <t>79,56; 83,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>62,78; 68,34</t>
+          <t>53,03; 62,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>69,83%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>68,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>80,65%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>72,29%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>81,78%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>82,2%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>62,11%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>70,2%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>78,28%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>62,72%</t>
+          <t>60,53%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,89; 72,76</t>
+          <t>68,69; 71,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,55; 77,38</t>
+          <t>67,23; 70,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77,94; 83,24</t>
+          <t>80,47; 83,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60,21; 66,92</t>
+          <t>45,06; 63,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,67; 73,32</t>
+          <t>70,83; 73,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,13; 84,04</t>
+          <t>73,9; 76,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>79,72; 84,44</t>
+          <t>83,39; 85,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,17; 64,9</t>
+          <t>57,8; 64,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>68,2; 72,2</t>
+          <t>70,27; 72,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>76,46; 79,94</t>
+          <t>71,04; 73,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>79,56; 83,14</t>
+          <t>82,36; 84,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>60,67; 65,05</t>
+          <t>51,87; 63,45</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>70,43%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>68,87%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>81,91%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>63,29%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>72,29%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>75,29%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>84,79%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>64,76%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>71,38%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>72,14%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>83,38%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>64,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>68,69; 71,99</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>67,23; 70,51</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>80,47; 83,26</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>60,32; 65,5</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>70,83; 73,86</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>73,9; 76,69</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>83,39; 85,92</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>63,12; 66,31</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>70,27; 72,46</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>71,04; 73,28</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>82,36; 84,23</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>62,1; 65,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P57GLOBAL_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,93; 80,11</t>
+          <t>73,72; 79,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60,7; 68,14</t>
+          <t>60,68; 68,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,26; 82,57</t>
+          <t>76,29; 82,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,88; 62,71</t>
+          <t>54,13; 62,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,92; 80,4</t>
+          <t>74,28; 80,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>68,34; 75,4</t>
+          <t>68,58; 75,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,12; 87,39</t>
+          <t>81,99; 87,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,16; 65,66</t>
+          <t>59,18; 65,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74,81; 79,45</t>
+          <t>75,05; 79,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65,92; 70,9</t>
+          <t>65,65; 70,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>80,06; 84,26</t>
+          <t>80,17; 84,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>57,6; 63,31</t>
+          <t>57,79; 63,31</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,29; 73,22</t>
+          <t>66,8; 73,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,84; 71,88</t>
+          <t>65,53; 71,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,8; 83,86</t>
+          <t>78,63; 83,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,71; 65,96</t>
+          <t>28,39; 66,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,26; 76,65</t>
+          <t>70,7; 76,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,77; 77,65</t>
+          <t>71,27; 77,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,33; 88,33</t>
+          <t>84,09; 88,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>64,87; 70,29</t>
+          <t>65,02; 70,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69,89; 74,11</t>
+          <t>69,88; 73,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>69,76; 73,79</t>
+          <t>69,59; 73,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>82,25; 85,67</t>
+          <t>82,17; 85,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,93; 67,19</t>
+          <t>38,64; 67,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>60,76; 68,62</t>
+          <t>60,55; 68,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,48; 69,55</t>
+          <t>62,24; 69,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,62; 88,55</t>
+          <t>83,42; 88,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,08; 70,52</t>
+          <t>62,13; 70,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,31; 70,95</t>
+          <t>64,35; 71,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,5; 73,56</t>
+          <t>66,87; 73,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>83,07; 88,21</t>
+          <t>82,88; 88,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,41; 66,64</t>
+          <t>52,14; 66,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,49; 68,79</t>
+          <t>63,74; 68,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>65,63; 70,67</t>
+          <t>65,58; 70,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>84,35; 87,87</t>
+          <t>84,05; 87,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>59,12; 67,33</t>
+          <t>59,17; 67,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,89; 72,76</t>
+          <t>66,94; 72,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,55; 77,38</t>
+          <t>71,02; 77,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,94; 83,24</t>
+          <t>77,88; 83,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,19; 65,51</t>
+          <t>58,12; 65,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,67; 73,32</t>
+          <t>67,85; 73,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,13; 84,04</t>
+          <t>79,25; 84,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,72; 84,44</t>
+          <t>79,68; 84,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,5; 62,86</t>
+          <t>45,3; 62,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68,2; 72,2</t>
+          <t>68,02; 72,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76,46; 79,94</t>
+          <t>76,38; 80,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79,56; 83,14</t>
+          <t>79,8; 83,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,03; 62,79</t>
+          <t>51,83; 62,63</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>68,69; 71,99</t>
+          <t>68,81; 71,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,23; 70,51</t>
+          <t>67,33; 70,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,47; 83,26</t>
+          <t>80,69; 83,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,06; 63,82</t>
+          <t>44,53; 63,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>70,83; 73,86</t>
+          <t>70,65; 73,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,9; 76,69</t>
+          <t>73,71; 76,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>83,39; 85,92</t>
+          <t>83,36; 85,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>57,8; 64,61</t>
+          <t>58,44; 64,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70,27; 72,46</t>
+          <t>70,14; 72,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>71,04; 73,28</t>
+          <t>70,94; 73,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>82,36; 84,23</t>
+          <t>82,45; 84,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,87; 63,45</t>
+          <t>51,76; 63,52</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo social funcional bajo, por encima del percentil 15</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>535450</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>447624</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>534612</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>366661</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>531588</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>499339</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>567368</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>410341</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1067038</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>946962</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1101980</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>777003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>511638; 554857</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>421113; 473203</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>512478; 555314</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>338952; 394150</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>510587; 553357</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>474101; 522351</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>547750; 585619</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>389031; 431016</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1036701; 1099177</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>909517; 981174</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1074094; 1129723</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>741707; 812629</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1327</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1604</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>674069</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>692367</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>827550</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>606276</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>715326</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>765223</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>894655</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>639036</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1389395</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1457589</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1722205</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1245312</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>641787; 702247</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>660016; 719651</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>799052; 850878</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>334768; 778747</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>683858; 741563</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>729735; 794500</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>870135; 916740</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>612574; 662683</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1347183; 1426459</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1413391; 1497498</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1685257; 1754548</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>819664; 1424825</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>438139</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>493541</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>646072</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>462449</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>461929</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>541429</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>663298</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>450379</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>900068</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1034970</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1309371</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>912828</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>409783; 462368</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>464597; 518328</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>625340; 664227</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>433295; 492818</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>440034; 486217</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>516713; 567250</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>640069; 681149</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>375687; 482681</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>867204; 937574</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>996261; 1071765</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1279088; 1337016</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>839081; 956576</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1475</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1521</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1642</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>655704</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>698599</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>750366</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>561085</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>731823</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>846398</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>849678</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>620308</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1387526</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1544996</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1600044</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1181393</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>628518; 683800</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>666606; 724176</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>724612; 772464</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>527801; 595335</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>703997; 761389</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>820194; 870211</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>823572; 873214</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>484682; 672553</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1344423; 1426942</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1507358; 1583041</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1567231; 1633854</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1025185; 1238912</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2266</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2626</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2220</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2788</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3545</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5414</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5765</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2303361</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2332130</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2758599</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1996471</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2440666</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2652387</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2975000</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2120065</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4744028</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4984518</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5733599</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4116536</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2250542; 2354164</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2280017; 2384626</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2717762; 2808146</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1518941; 2174881</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2385333; 2485211</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2596683; 2703225</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2924839; 3015188</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1980925; 2201273</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4661791; 4811229</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4901721; 5060829</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5669921; 5799050</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3520377; 4320061</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>